--- a/egg_report/egg_report/uploads/parsed_data.xlsx
+++ b/egg_report/egg_report/uploads/parsed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,6 @@
           <t>總次級蛋%</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>來源文件</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,11 +546,6 @@
           <t>23.8%</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0428.HTM</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -613,11 +603,6 @@
           <t>21.6%</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0428.HTM</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -675,11 +660,6 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0428.HTM</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -737,11 +717,6 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0428.HTM</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -799,11 +774,6 @@
           <t>23.7%</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0428.HTM</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -861,11 +831,6 @@
           <t>26.3%</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0428.HTM</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -923,11 +888,6 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0428.HTM</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -985,11 +945,6 @@
           <t>15.0%</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0428.HTM</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1047,11 +1002,6 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0428.HTM</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1107,11 +1057,6 @@
       <c r="K11" t="inlineStr">
         <is>
           <t>0.0%</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0428.HTM</t>
         </is>
       </c>
     </row>
